--- a/Design Concept 1.xlsx
+++ b/Design Concept 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Documents\Social.Influence_Speech.Perception\SI.SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97401CD-B376-409C-82C1-27C479A16BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582A2FE9-8A2C-4E9A-A592-BDF755BBA82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5B7DF31F-27BB-4692-89D9-12413D71732B}"/>
   </bookViews>
@@ -1223,9 +1223,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1238,14 +1235,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1496,6 +1491,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1811,24 +1821,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9049D793-8A6C-4CFB-A634-EE15586579FE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AD36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="75"/>
-      <c r="B2" s="100" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="100"/>
+      <c r="C2" s="95"/>
       <c r="E2" s="36"/>
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
@@ -1839,44 +1852,44 @@
       <c r="M2" s="37"/>
       <c r="N2" s="37"/>
       <c r="O2" s="38"/>
-      <c r="P2" s="98" t="s">
+      <c r="P2" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
     </row>
     <row r="3" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="93"/>
+      <c r="C3" s="88"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="94" t="s">
+      <c r="E3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="95"/>
+      <c r="F3" s="90"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="96" t="s">
+      <c r="H3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="97"/>
+      <c r="I3" s="92"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="94" t="s">
+      <c r="K3" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="95"/>
+      <c r="L3" s="90"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="96" t="s">
+      <c r="N3" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="97"/>
-      <c r="P3" s="79" t="s">
+      <c r="O3" s="92"/>
+      <c r="P3" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
     </row>
     <row r="4" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35"/>
@@ -1910,12 +1923,12 @@
         <v>23</v>
       </c>
       <c r="P4" s="56"/>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="84"/>
+      <c r="R4" s="79"/>
       <c r="S4" s="56"/>
-      <c r="T4" s="75"/>
+      <c r="T4" s="70"/>
     </row>
     <row r="5" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="7"/>
@@ -1948,21 +1961,21 @@
       <c r="O5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="74" t="s">
+      <c r="P5" s="71"/>
+      <c r="Q5" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="73" t="s">
+      <c r="R5" s="68" t="s">
         <v>47</v>
       </c>
       <c r="S5" s="56"/>
-      <c r="T5" s="75"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="102"/>
+      <c r="C6" s="97"/>
       <c r="D6" s="1"/>
       <c r="E6" s="28" t="s">
         <v>19</v>
@@ -1991,17 +2004,17 @@
       <c r="O6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="83" t="s">
+      <c r="P6" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="71" t="s">
+      <c r="Q6" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="R6" s="72" t="s">
+      <c r="R6" s="67" t="s">
         <v>23</v>
       </c>
       <c r="S6" s="56"/>
-      <c r="T6" s="75"/>
+      <c r="T6" s="70"/>
     </row>
     <row r="7" spans="1:20" ht="16" x14ac:dyDescent="0.35">
       <c r="B7" s="41" t="s">
@@ -2038,7 +2051,7 @@
       <c r="O7" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="83"/>
+      <c r="P7" s="78"/>
       <c r="Q7" s="21" t="s">
         <v>18</v>
       </c>
@@ -2046,7 +2059,7 @@
         <v>24</v>
       </c>
       <c r="S7" s="56"/>
-      <c r="T7" s="75"/>
+      <c r="T7" s="70"/>
     </row>
     <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.35">
       <c r="B8" s="21" t="s">
@@ -2083,7 +2096,7 @@
       <c r="O8" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="P8" s="83"/>
+      <c r="P8" s="78"/>
       <c r="Q8" s="28" t="s">
         <v>19</v>
       </c>
@@ -2091,7 +2104,7 @@
         <v>25</v>
       </c>
       <c r="S8" s="56"/>
-      <c r="T8" s="75"/>
+      <c r="T8" s="70"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="28" t="s">
@@ -2128,7 +2141,7 @@
       <c r="O9" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="P9" s="83"/>
+      <c r="P9" s="78"/>
       <c r="Q9" s="25" t="s">
         <v>20</v>
       </c>
@@ -2136,7 +2149,7 @@
         <v>26</v>
       </c>
       <c r="S9" s="56"/>
-      <c r="T9" s="75"/>
+      <c r="T9" s="70"/>
     </row>
     <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.35">
       <c r="B10" s="25" t="s">
@@ -2157,7 +2170,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="40"/>
-      <c r="P10" s="83"/>
+      <c r="P10" s="78"/>
       <c r="Q10" s="30" t="s">
         <v>21</v>
       </c>
@@ -2165,7 +2178,7 @@
         <v>27</v>
       </c>
       <c r="S10" s="56"/>
-      <c r="T10" s="75"/>
+      <c r="T10" s="70"/>
     </row>
     <row r="11" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="30" t="s">
@@ -2175,29 +2188,29 @@
         <v>10</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="103" t="s">
+      <c r="E11" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="105"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="100"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="103" t="s">
+      <c r="K11" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="104"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="105"/>
-      <c r="P11" s="83"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="78"/>
       <c r="Q11" s="23" t="s">
         <v>22</v>
       </c>
       <c r="R11" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="S11" s="77"/>
+      <c r="S11" s="72"/>
     </row>
     <row r="12" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="23" t="s">
@@ -2218,32 +2231,32 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="77"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
     </row>
     <row r="13" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="109" t="s">
+      <c r="E13" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="109"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
     </row>
     <row r="14" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
@@ -2252,56 +2265,56 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="81" t="s">
+      <c r="H14" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="110" t="s">
+      <c r="P14" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="Q14" s="111"/>
-      <c r="R14" s="111"/>
-      <c r="S14" s="112"/>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="106"/>
+      <c r="S14" s="107"/>
     </row>
     <row r="15" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="87" t="s">
+      <c r="D15" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="85" t="s">
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="116" t="s">
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="Q15" s="117"/>
-      <c r="R15" s="116" t="s">
+      <c r="Q15" s="112"/>
+      <c r="R15" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="S15" s="117"/>
+      <c r="S15" s="112"/>
     </row>
     <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.4">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="8" t="s">
         <v>17</v>
       </c>
@@ -2338,20 +2351,20 @@
       <c r="O16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="P16" s="128" t="s">
+      <c r="P16" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="Q16" s="129"/>
-      <c r="R16" s="132" t="s">
+      <c r="Q16" s="124"/>
+      <c r="R16" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="S16" s="133"/>
+      <c r="S16" s="128"/>
     </row>
     <row r="17" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="90"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="13" t="s">
         <v>8</v>
       </c>
@@ -2388,16 +2401,16 @@
       <c r="O17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="P17" s="134" t="s">
+      <c r="P17" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="Q17" s="135"/>
-      <c r="R17" s="130" t="s">
+      <c r="Q17" s="130"/>
+      <c r="R17" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="S17" s="131"/>
-    </row>
-    <row r="18" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S17" s="126"/>
+    </row>
+    <row r="18" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2412,16 +2425,16 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="58"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="61"/>
-    </row>
-    <row r="19" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="87" t="s">
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="150"/>
+    </row>
+    <row r="19" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="108"/>
+      <c r="C19" s="103"/>
       <c r="D19" s="2" t="s">
         <v>33</v>
       </c>
@@ -2458,16 +2471,16 @@
       <c r="O19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P19" s="66" t="s">
+      <c r="P19" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="Q19" s="59" t="s">
+      <c r="Q19" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="R19" s="60" t="s">
+      <c r="R19" s="153" t="s">
         <v>34</v>
       </c>
-      <c r="S19" s="69" t="s">
+      <c r="S19" s="154" t="s">
         <v>33</v>
       </c>
       <c r="T19" s="44"/>
@@ -2508,12 +2521,12 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="113" t="s">
+      <c r="P21" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="Q21" s="114"/>
-      <c r="R21" s="114"/>
-      <c r="S21" s="115"/>
+      <c r="Q21" s="109"/>
+      <c r="R21" s="109"/>
+      <c r="S21" s="110"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
@@ -2529,30 +2542,30 @@
     <row r="22" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="106" t="s">
+      <c r="D22" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="87" t="s">
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="102"/>
-      <c r="P22" s="118" t="s">
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="118" t="s">
+      <c r="Q22" s="114"/>
+      <c r="R22" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="S22" s="119"/>
+      <c r="S22" s="114"/>
       <c r="T22" s="34"/>
       <c r="U22" s="34"/>
       <c r="V22" s="34"/>
@@ -2566,10 +2579,10 @@
       <c r="AD22" s="34"/>
     </row>
     <row r="23" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="88"/>
+      <c r="C23" s="83"/>
       <c r="D23" s="51" t="s">
         <v>8</v>
       </c>
@@ -2606,20 +2619,20 @@
       <c r="O23" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="P23" s="124" t="s">
+      <c r="P23" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="Q23" s="125"/>
-      <c r="R23" s="122" t="s">
+      <c r="Q23" s="120"/>
+      <c r="R23" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="S23" s="123"/>
+      <c r="S23" s="118"/>
     </row>
     <row r="24" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="86"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="53" t="s">
         <v>17</v>
       </c>
@@ -2656,14 +2669,14 @@
       <c r="O24" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="P24" s="120" t="s">
+      <c r="P24" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="Q24" s="121"/>
-      <c r="R24" s="126" t="s">
+      <c r="Q24" s="116"/>
+      <c r="R24" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="S24" s="127"/>
+      <c r="S24" s="122"/>
     </row>
     <row r="25" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="35"/>
@@ -2680,16 +2693,16 @@
       <c r="M25" s="35"/>
       <c r="N25" s="35"/>
       <c r="O25" s="57"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="63"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="60"/>
     </row>
     <row r="26" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="108"/>
+      <c r="C26" s="103"/>
       <c r="D26" s="2" t="s">
         <v>33</v>
       </c>
@@ -2726,169 +2739,169 @@
       <c r="O26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P26" s="67" t="s">
+      <c r="P26" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="Q26" s="64" t="s">
+      <c r="Q26" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="R26" s="65" t="s">
+      <c r="R26" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="S26" s="68" t="s">
+      <c r="S26" s="64" t="s">
         <v>33</v>
       </c>
       <c r="T26" s="44"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="D28" s="136" t="s">
+      <c r="D28" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="136"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="136"/>
-      <c r="N28" s="136"/>
-      <c r="O28" s="136"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="131"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="D29" s="137"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="137"/>
-      <c r="K29" s="137"/>
-      <c r="L29" s="137"/>
-      <c r="M29" s="137"/>
-      <c r="N29" s="137"/>
-      <c r="O29" s="137"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="132"/>
+      <c r="N29" s="132"/>
+      <c r="O29" s="132"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="D30" s="148" t="s">
+      <c r="D30" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="138"/>
-      <c r="K30" s="138"/>
-      <c r="L30" s="138"/>
-      <c r="M30" s="138"/>
-      <c r="N30" s="138"/>
-      <c r="O30" s="138"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="133"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="133"/>
+      <c r="L30" s="133"/>
+      <c r="M30" s="133"/>
+      <c r="N30" s="133"/>
+      <c r="O30" s="133"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="D31" s="139"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="149" t="s">
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="150"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="144" t="s">
+      <c r="G31" s="145"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="J31" s="144" t="s">
+      <c r="J31" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="K31" s="145"/>
-      <c r="L31" s="144" t="s">
+      <c r="K31" s="140"/>
+      <c r="L31" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="M31" s="144" t="s">
+      <c r="M31" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="N31" s="139"/>
-      <c r="O31" s="139"/>
+      <c r="N31" s="134"/>
+      <c r="O31" s="134"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="D32" s="139"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="146" t="s">
+      <c r="D32" s="134"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="146"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="146" t="s">
+      <c r="G32" s="141"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="J32" s="146"/>
-      <c r="K32" s="145"/>
-      <c r="L32" s="146" t="s">
+      <c r="J32" s="141"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="M32" s="146"/>
-      <c r="N32" s="139"/>
-      <c r="O32" s="139"/>
+      <c r="M32" s="141"/>
+      <c r="N32" s="134"/>
+      <c r="O32" s="134"/>
     </row>
     <row r="33" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D33" s="139"/>
-      <c r="E33" s="139"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="145"/>
-      <c r="L33" s="147"/>
-      <c r="M33" s="147"/>
-      <c r="N33" s="139"/>
-      <c r="O33" s="139"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="142"/>
+      <c r="K33" s="140"/>
+      <c r="L33" s="142"/>
+      <c r="M33" s="142"/>
+      <c r="N33" s="134"/>
+      <c r="O33" s="134"/>
     </row>
     <row r="34" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D34" s="139"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="143" t="s">
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="142"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="151" t="s">
+      <c r="G34" s="137"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="J34" s="151"/>
-      <c r="K34" s="152" t="s">
+      <c r="J34" s="146"/>
+      <c r="K34" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="L34" s="151" t="s">
+      <c r="L34" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="M34" s="153"/>
-      <c r="N34" s="139"/>
-      <c r="O34" s="139"/>
+      <c r="M34" s="148"/>
+      <c r="N34" s="134"/>
+      <c r="O34" s="134"/>
     </row>
     <row r="35" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D35" s="139"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="154"/>
-      <c r="J35" s="154"/>
-      <c r="K35" s="147"/>
-      <c r="L35" s="154"/>
-      <c r="M35" s="154"/>
-      <c r="N35" s="139"/>
-      <c r="O35" s="139"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="136"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="142"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
+      <c r="N35" s="134"/>
+      <c r="O35" s="134"/>
     </row>
     <row r="36" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="47">
@@ -2941,6 +2954,6 @@
     <mergeCell ref="P17:Q17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>